--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Pennant/Thomas_Pennant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Pennant/Thomas_Pennant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Pennant, né le 14 juin 1726 à Whitford (Flintshire) et mort le 16 décembre 1798 à Downing Hall (Flintshire), sa demeure au pays de Galles, est un amateur d'antiquités et naturaliste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une noble famille galloise, Pennant fait ses études à Oxford au Queen's College puis à l'Oriel College. Comme de nombreux autres étudiants de haute extraction, il quitte Oxford sans le moindre diplôme mais recevra, bien plus tard, à titre honorifique, en 1771 un diplôme d'honneur en reconnaissance de son œuvre zoologique.
 À l'âge de 12 ans, Pennant se découvre une passion pour l'histoire naturelle grâce à l’Ornithology de Francis Willughby. Lors d'un voyage en Cornouailles en 1746-1747, il rencontre l'antiquaire et naturaliste William Borlase, qui l'initie à l'étude des minéraux et des fossiles, qui deviendront le principal sujet de Pennant durant les années 1750.
